--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F7-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>F3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>15.4319849575974</v>
+        <v>1.341690333333333</v>
       </c>
       <c r="H2">
-        <v>15.4319849575974</v>
+        <v>4.025071000000001</v>
       </c>
       <c r="I2">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306734</v>
       </c>
       <c r="J2">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306735</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.519471014044347</v>
+        <v>0.9880003333333333</v>
       </c>
       <c r="N2">
-        <v>0.519471014044347</v>
+        <v>2.964001</v>
       </c>
       <c r="O2">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="P2">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="Q2">
-        <v>8.016468874640232</v>
+        <v>1.325590496563444</v>
       </c>
       <c r="R2">
-        <v>8.016468874640232</v>
+        <v>11.930314469071</v>
       </c>
       <c r="S2">
-        <v>0.007764276111426934</v>
+        <v>0.00107407488032597</v>
       </c>
       <c r="T2">
-        <v>0.007764276111426934</v>
+        <v>0.00107407488032597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.4319849575974</v>
+        <v>1.341690333333333</v>
       </c>
       <c r="H3">
-        <v>15.4319849575974</v>
+        <v>4.025071000000001</v>
       </c>
       <c r="I3">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306734</v>
       </c>
       <c r="J3">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306735</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.5540484652375</v>
+        <v>46.102515</v>
       </c>
       <c r="N3">
-        <v>45.5540484652375</v>
+        <v>138.307545</v>
       </c>
       <c r="O3">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269279</v>
       </c>
       <c r="P3">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269277</v>
       </c>
       <c r="Q3">
-        <v>702.989390673208</v>
+        <v>61.85529871785501</v>
       </c>
       <c r="R3">
-        <v>702.989390673208</v>
+        <v>556.6976884606951</v>
       </c>
       <c r="S3">
-        <v>0.6808738133890058</v>
+        <v>0.05011896414476705</v>
       </c>
       <c r="T3">
-        <v>0.6808738133890058</v>
+        <v>0.05011896414476706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>15.4319849575974</v>
+        <v>1.341690333333333</v>
       </c>
       <c r="H4">
-        <v>15.4319849575974</v>
+        <v>4.025071000000001</v>
       </c>
       <c r="I4">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306734</v>
       </c>
       <c r="J4">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306735</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.611205635863196</v>
+        <v>0.6702083333333334</v>
       </c>
       <c r="N4">
-        <v>0.611205635863196</v>
+        <v>2.010625</v>
       </c>
       <c r="O4">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="P4">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="Q4">
-        <v>9.432116178639594</v>
+        <v>0.8992120421527779</v>
       </c>
       <c r="R4">
-        <v>9.432116178639594</v>
+        <v>8.092908379375002</v>
       </c>
       <c r="S4">
-        <v>0.009135388095584857</v>
+        <v>0.0007285968548105765</v>
       </c>
       <c r="T4">
-        <v>0.009135388095584857</v>
+        <v>0.0007285968548105766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>15.4319849575974</v>
+        <v>1.341690333333333</v>
       </c>
       <c r="H5">
-        <v>15.4319849575974</v>
+        <v>4.025071000000001</v>
       </c>
       <c r="I5">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306734</v>
       </c>
       <c r="J5">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306735</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.725588006723657</v>
+        <v>0.794312</v>
       </c>
       <c r="N5">
-        <v>0.725588006723657</v>
+        <v>2.382936</v>
       </c>
       <c r="O5">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953525</v>
       </c>
       <c r="P5">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953524</v>
       </c>
       <c r="Q5">
-        <v>11.19726320517256</v>
+        <v>1.065720732050667</v>
       </c>
       <c r="R5">
-        <v>11.19726320517256</v>
+        <v>9.591486588456</v>
       </c>
       <c r="S5">
-        <v>0.01084500477414786</v>
+        <v>0.0008635124276356335</v>
       </c>
       <c r="T5">
-        <v>0.01084500477414786</v>
+        <v>0.0008635124276356335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>15.4319849575974</v>
+        <v>1.341690333333333</v>
       </c>
       <c r="H6">
-        <v>15.4319849575974</v>
+        <v>4.025071000000001</v>
       </c>
       <c r="I6">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306734</v>
       </c>
       <c r="J6">
-        <v>0.7184578692129793</v>
+        <v>0.05354309921306735</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.658306864343572</v>
+        <v>0.69721</v>
       </c>
       <c r="N6">
-        <v>0.658306864343572</v>
+        <v>2.09163</v>
       </c>
       <c r="O6">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="P6">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="Q6">
-        <v>10.15898162803312</v>
+        <v>0.9354399173033334</v>
       </c>
       <c r="R6">
-        <v>10.15898162803312</v>
+        <v>8.41895925573</v>
       </c>
       <c r="S6">
-        <v>0.009839386842813947</v>
+        <v>0.0007579509055281048</v>
       </c>
       <c r="T6">
-        <v>0.009839386842813947</v>
+        <v>0.0007579509055281049</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.04733292432944</v>
+        <v>15.617696</v>
       </c>
       <c r="H7">
-        <v>6.04733292432944</v>
+        <v>46.853088</v>
       </c>
       <c r="I7">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="J7">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.519471014044347</v>
+        <v>0.9880003333333333</v>
       </c>
       <c r="N7">
-        <v>0.519471014044347</v>
+        <v>2.964001</v>
       </c>
       <c r="O7">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="P7">
-        <v>0.01080686348377276</v>
+        <v>0.02006000579181712</v>
       </c>
       <c r="Q7">
-        <v>3.14141416646518</v>
+        <v>15.43028885389867</v>
       </c>
       <c r="R7">
-        <v>3.14141416646518</v>
+        <v>138.872599685088</v>
       </c>
       <c r="S7">
-        <v>0.00304258737234583</v>
+        <v>0.01250256824947986</v>
       </c>
       <c r="T7">
-        <v>0.00304258737234583</v>
+        <v>0.01250256824947985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.04733292432944</v>
+        <v>15.617696</v>
       </c>
       <c r="H8">
-        <v>6.04733292432944</v>
+        <v>46.853088</v>
       </c>
       <c r="I8">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="J8">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.5540484652375</v>
+        <v>46.102515</v>
       </c>
       <c r="N8">
-        <v>45.5540484652375</v>
+        <v>138.307545</v>
       </c>
       <c r="O8">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269279</v>
       </c>
       <c r="P8">
-        <v>0.9476878778359763</v>
+        <v>0.9360489938269277</v>
       </c>
       <c r="Q8">
-        <v>275.4804971203297</v>
+        <v>720.01506410544</v>
       </c>
       <c r="R8">
-        <v>275.4804971203297</v>
+        <v>6480.13557694896</v>
       </c>
       <c r="S8">
-        <v>0.2668140644469706</v>
+        <v>0.583400451207846</v>
       </c>
       <c r="T8">
-        <v>0.2668140644469706</v>
+        <v>0.5834004512078459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.04733292432944</v>
+        <v>15.617696</v>
       </c>
       <c r="H9">
-        <v>6.04733292432944</v>
+        <v>46.853088</v>
       </c>
       <c r="I9">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="J9">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.611205635863196</v>
+        <v>0.6702083333333334</v>
       </c>
       <c r="N9">
-        <v>0.611205635863196</v>
+        <v>2.010625</v>
       </c>
       <c r="O9">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="P9">
-        <v>0.01271527320814516</v>
+        <v>0.01360767055921112</v>
       </c>
       <c r="Q9">
-        <v>3.696163965291216</v>
+        <v>10.46711000666667</v>
       </c>
       <c r="R9">
-        <v>3.696163965291216</v>
+        <v>94.20399006000001</v>
       </c>
       <c r="S9">
-        <v>0.003579885112560306</v>
+        <v>0.00848109575084841</v>
       </c>
       <c r="T9">
-        <v>0.003579885112560306</v>
+        <v>0.00848109575084841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.04733292432944</v>
+        <v>15.617696</v>
       </c>
       <c r="H10">
-        <v>6.04733292432944</v>
+        <v>46.853088</v>
       </c>
       <c r="I10">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="J10">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.725588006723657</v>
+        <v>0.794312</v>
       </c>
       <c r="N10">
-        <v>0.725588006723657</v>
+        <v>2.382936</v>
       </c>
       <c r="O10">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953525</v>
       </c>
       <c r="P10">
-        <v>0.0150948374829937</v>
+        <v>0.01612742706953524</v>
       </c>
       <c r="Q10">
-        <v>4.387872242558542</v>
+        <v>12.405323345152</v>
       </c>
       <c r="R10">
-        <v>4.387872242558542</v>
+        <v>111.647910106368</v>
       </c>
       <c r="S10">
-        <v>0.004249832708845835</v>
+        <v>0.01005155530451661</v>
       </c>
       <c r="T10">
-        <v>0.004249832708845835</v>
+        <v>0.01005155530451661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.04733292432944</v>
+        <v>15.617696</v>
       </c>
       <c r="H11">
-        <v>6.04733292432944</v>
+        <v>46.853088</v>
       </c>
       <c r="I11">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="J11">
-        <v>0.2815421307870207</v>
+        <v>0.6232584566142001</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.658306864343572</v>
+        <v>0.69721</v>
       </c>
       <c r="N11">
-        <v>0.658306864343572</v>
+        <v>2.09163</v>
       </c>
       <c r="O11">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="P11">
-        <v>0.01369514798911217</v>
+        <v>0.01415590275250867</v>
       </c>
       <c r="Q11">
-        <v>3.981000775056957</v>
+        <v>10.88881382816</v>
       </c>
       <c r="R11">
-        <v>3.981000775056957</v>
+        <v>97.99932445344</v>
       </c>
       <c r="S11">
-        <v>0.003855761146298223</v>
+        <v>0.008822786101509262</v>
       </c>
       <c r="T11">
-        <v>0.003855761146298223</v>
+        <v>0.00882278610150926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.098751</v>
+      </c>
+      <c r="H12">
+        <v>24.296253</v>
+      </c>
+      <c r="I12">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="J12">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9880003333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.964001</v>
+      </c>
+      <c r="O12">
+        <v>0.02006000579181712</v>
+      </c>
+      <c r="P12">
+        <v>0.02006000579181712</v>
+      </c>
+      <c r="Q12">
+        <v>8.001568687583665</v>
+      </c>
+      <c r="R12">
+        <v>72.01411818825299</v>
+      </c>
+      <c r="S12">
+        <v>0.006483362662011299</v>
+      </c>
+      <c r="T12">
+        <v>0.006483362662011299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.098751</v>
+      </c>
+      <c r="H13">
+        <v>24.296253</v>
+      </c>
+      <c r="I13">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="J13">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>46.102515</v>
+      </c>
+      <c r="N13">
+        <v>138.307545</v>
+      </c>
+      <c r="O13">
+        <v>0.9360489938269279</v>
+      </c>
+      <c r="P13">
+        <v>0.9360489938269277</v>
+      </c>
+      <c r="Q13">
+        <v>373.3727894587651</v>
+      </c>
+      <c r="R13">
+        <v>3360.355105128885</v>
+      </c>
+      <c r="S13">
+        <v>0.3025295784743148</v>
+      </c>
+      <c r="T13">
+        <v>0.3025295784743149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.098751</v>
+      </c>
+      <c r="H14">
+        <v>24.296253</v>
+      </c>
+      <c r="I14">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="J14">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6702083333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.010625</v>
+      </c>
+      <c r="O14">
+        <v>0.01360767055921112</v>
+      </c>
+      <c r="P14">
+        <v>0.01360767055921112</v>
+      </c>
+      <c r="Q14">
+        <v>5.427850409791668</v>
+      </c>
+      <c r="R14">
+        <v>48.850653688125</v>
+      </c>
+      <c r="S14">
+        <v>0.004397977953552131</v>
+      </c>
+      <c r="T14">
+        <v>0.004397977953552131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.098751</v>
+      </c>
+      <c r="H15">
+        <v>24.296253</v>
+      </c>
+      <c r="I15">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="J15">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.794312</v>
+      </c>
+      <c r="N15">
+        <v>2.382936</v>
+      </c>
+      <c r="O15">
+        <v>0.01612742706953525</v>
+      </c>
+      <c r="P15">
+        <v>0.01612742706953524</v>
+      </c>
+      <c r="Q15">
+        <v>6.432935104312</v>
+      </c>
+      <c r="R15">
+        <v>57.896415938808</v>
+      </c>
+      <c r="S15">
+        <v>0.005212359337383003</v>
+      </c>
+      <c r="T15">
+        <v>0.005212359337383003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.098751</v>
+      </c>
+      <c r="H16">
+        <v>24.296253</v>
+      </c>
+      <c r="I16">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="J16">
+        <v>0.3231984441727326</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.69721</v>
+      </c>
+      <c r="N16">
+        <v>2.09163</v>
+      </c>
+      <c r="O16">
+        <v>0.01415590275250867</v>
+      </c>
+      <c r="P16">
+        <v>0.01415590275250867</v>
+      </c>
+      <c r="Q16">
+        <v>5.64653018471</v>
+      </c>
+      <c r="R16">
+        <v>50.81877166239</v>
+      </c>
+      <c r="S16">
+        <v>0.004575165745471305</v>
+      </c>
+      <c r="T16">
+        <v>0.004575165745471305</v>
       </c>
     </row>
   </sheetData>
